--- a/data/trans_dic/P17_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud mental autopercibida regular o mala</t>
+          <t>Población con salud mental autopercibida regular o mala (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 17,6</t>
+          <t>3,14; 26,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,79</t>
+          <t>0,0; 15,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,3</t>
+          <t>0,0; 12,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 16,96</t>
+          <t>0,0; 22,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,44; 43,76</t>
+          <t>3,53; 30,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 19,9</t>
+          <t>12,9; 37,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 20,42</t>
+          <t>2,11; 18,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 22,11</t>
+          <t>1,83; 16,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,59; 28,86</t>
+          <t>4,9; 25,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 12,35</t>
+          <t>7,47; 29,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 12,75</t>
+          <t>10,61; 27,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 15,95</t>
+          <t>1,34; 12,03</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 11,06</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 19,01</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 23,27</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9,61%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,82; 43,51</t>
+          <t>6,77; 53,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 10,86</t>
+          <t>0,0; 14,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 17,25</t>
+          <t>3,09; 20,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 12,92</t>
+          <t>1,74; 18,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,84; 29,08</t>
+          <t>5,99; 54,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 12,35</t>
+          <t>11,26; 32,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 20,75</t>
+          <t>1,41; 13,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 19,91</t>
+          <t>5,49; 24,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,24; 30,74</t>
+          <t>5,36; 22,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,99</t>
+          <t>7,74; 27,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,56; 16,44</t>
+          <t>11,84; 41,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 13,68</t>
+          <t>1,82; 10,39</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 19,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,98; 16,88</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>9,89; 41,71</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>17,81%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>12,16%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 22,1</t>
+          <t>9,58; 28,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 38,84</t>
+          <t>3,33; 17,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 27,56</t>
+          <t>5,05; 22,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,38; 26,17</t>
+          <t>9,56; 31,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,14; 28,58</t>
+          <t>5,15; 23,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 17,43</t>
+          <t>12,57; 28,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,4; 24,53</t>
+          <t>5,59; 17,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,38; 25,07</t>
+          <t>9,28; 22,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,13; 22,54</t>
+          <t>10,32; 25,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 21,48</t>
+          <t>6,02; 19,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,7; 22,34</t>
+          <t>13,2; 25,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,24; 23,1</t>
+          <t>5,78; 15,35</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8,88; 19,1</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>12,55; 24,89</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>7,06; 17,72</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>30,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>20,05%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23,14%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,22; 20,87</t>
+          <t>5,0; 19,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 11,95</t>
+          <t>2,44; 13,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 17,74</t>
+          <t>2,74; 15,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,33; 22,23</t>
+          <t>8,22; 24,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,8; 30,68</t>
+          <t>12,76; 30,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 19,66</t>
+          <t>15,73; 32,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 34,76</t>
+          <t>6,9; 19,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,63; 31,97</t>
+          <t>22,3; 40,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 24,37</t>
+          <t>16,18; 32,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 14,21</t>
+          <t>17,75; 35,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,2; 25,39</t>
+          <t>12,65; 24,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,64; 25,13</t>
+          <t>5,99; 15,01</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 26,88</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>14,04; 25,53</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>17,38; 30,0</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>10,15%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>11,33%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>18,83%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 15,07</t>
+          <t>6,25; 22,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 14,97</t>
+          <t>4,69; 21,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 13,91</t>
+          <t>3,01; 17,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,73; 15,31</t>
+          <t>5,2; 21,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,99; 29,47</t>
+          <t>7,64; 26,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 16,27</t>
+          <t>9,99; 31,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,33; 28,96</t>
+          <t>2,0; 17,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,43; 35,64</t>
+          <t>7,82; 26,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,63; 20,41</t>
+          <t>17,07; 41,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 13,6</t>
+          <t>8,87; 28,77</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,53; 18,93</t>
+          <t>9,73; 22,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,72; 23,0</t>
+          <t>5,27; 17,25</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,47; 18,51</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12,53; 26,79</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,5; 23,85</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>12,13%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>24,25%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,06; 17,11</t>
+          <t>2,46; 22,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,98; 19,25</t>
+          <t>2,37; 22,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,46; 26,44</t>
+          <t>4,96; 27,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,67; 22,09</t>
+          <t>0,0; 20,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,9; 31,19</t>
+          <t>2,57; 20,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,03; 33,27</t>
+          <t>10,23; 34,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,34; 27,44</t>
+          <t>6,76; 28,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,43; 66,12</t>
+          <t>6,91; 29,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,2; 22,87</t>
+          <t>6,59; 28,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,15; 23,94</t>
+          <t>19,35; 59,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,51; 24,39</t>
+          <t>8,23; 24,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,81; 51,16</t>
+          <t>6,0; 20,85</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>8,51; 24,28</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 20,67</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>14,09; 41,97</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>18,43%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,28; 16,75</t>
+          <t>9,97; 22,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 13,15</t>
+          <t>4,82; 11,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,64</t>
+          <t>5,78; 12,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,88; 14,5</t>
+          <t>7,98; 15,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,03; 26,86</t>
+          <t>11,16; 24,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,77</t>
+          <t>17,23; 25,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,76; 21,97</t>
+          <t>7,38; 13,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,33; 30,24</t>
+          <t>13,91; 21,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,61; 20,42</t>
+          <t>14,56; 22,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,6</t>
+          <t>16,57; 27,53</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,8; 16,93</t>
+          <t>14,94; 21,43</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,54; 21,35</t>
+          <t>6,82; 10,93</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 15,67</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 17,63</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>15,05; 22,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud mental autopercibida regular o mala (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3294</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2514</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8941</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16598</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28387</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8963</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7103</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16301</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24024</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36808</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12257</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9617</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>25242</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>40622</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2704; 22924</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16808</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13129</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 29320</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5140; 44045</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15171; 44660</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2832; 24600</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2193; 19549</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6004; 31624</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10869; 42465</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21603; 56468</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3221; 28989</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2506; 24964</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>11111; 47544</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>20938; 67796</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>29861</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6525</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13738</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11523</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>48981</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>27427</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8566</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17189</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15445</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27556</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>57288</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15090</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>30927</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>26968</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>76537</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9261; 73232</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20049</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4435; 29508</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2691; 28798</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13643; 123211</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15010; 43891</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2327; 22171</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6960; 31649</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6774; 28570</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12568; 45188</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>31983; 112000</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5575; 31867</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>16796; 52456</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>13963; 47357</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>38585; 162700</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24250</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13977</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15227</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26665</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22762</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>41539</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>28052</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31223</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>33554</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>28063</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>65789</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>42029</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>46450</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>60219</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>50825</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13389; 39652</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5403; 29112</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6791; 30256</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13156; 43413</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9291; 42942</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27086; 61077</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14771; 46493</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19419; 47034</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20691; 51214</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14320; 45828</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>46880; 89038</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24617; 65396</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>30506; 65643</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>42440; 84168</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>29529; 74057</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17226</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11494</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12453</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23200</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>40437</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>45812</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27823</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>56758</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>39989</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>55399</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>63038</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>39317</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>69211</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>63189</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>95836</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8178; 32093</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4546; 25613</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4410; 24660</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12844; 38846</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25709; 60933</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>30080; 62750</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15076; 42612</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>41016; 75195</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>27571; 55640</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>37768; 75182</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>44867; 85615</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>24272; 60789</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>51505; 92791</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>45867; 83384</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>71992; 124229</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18021</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18206</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10762</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14759</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>23684</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20094</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9346</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14829</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25878</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>24825</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>38115</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>27552</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>25590</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>40637</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>48508</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8677; 31632</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7286; 33909</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3977; 22636</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6411; 26928</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11816; 40796</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10337; 32367</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2321; 20781</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7334; 24703</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15817; 38740</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>12161; 39433</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>23592; 54262</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14295; 46813</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>14626; 41813</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>27038; 57832</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>30625; 69566</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7623</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9267</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11013</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5307</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11251</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>21005</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>20690</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16879</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18148</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>73304</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>28628</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>29958</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>27892</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>23454</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>84556</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2139; 19202</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2590; 24264</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4332; 23848</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18799</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3536; 28866</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10693; 35571</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>9296; 39384</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>7264; 31233</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7292; 31575</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>40791; 125124</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15738; 45990</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>14822; 51478</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>16377; 46737</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>12084; 41484</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>49120; 146324</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>105402</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>62764</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>65706</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>90394</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>163712</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>184264</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>103439</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>143981</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>149315</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>233172</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>289667</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>166203</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>209687</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>239709</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>396884</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>74948; 170885</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>41556; 95919</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>44184; 92557</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>62980; 120869</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>116896; 255572</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>149096; 223553</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>76370; 137607</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>116694; 180579</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>119837; 185032</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>183255; 304528</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>241677; 346578</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>129404; 207336</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>172969; 251151</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>196963; 284155</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>324233; 491130</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>